--- a/medicine/Enfance/Gilles_Valdès/Gilles_Valdès.xlsx
+++ b/medicine/Enfance/Gilles_Valdès/Gilles_Valdès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gilles_Vald%C3%A8s</t>
+          <t>Gilles_Valdès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilles Valdès (né Guy Texidor[1],[2] le 13 septembre 1924 à Toulouse et mort le 23 février 2018 à Gassin[3]) est un illustrateur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilles Valdès (né Guy Texidor, le 13 septembre 1924 à Toulouse et mort le 23 février 2018 à Gassin) est un illustrateur français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gilles_Vald%C3%A8s</t>
+          <t>Gilles_Valdès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gilles Valdès illustre de nombreux ouvrages destinés à la jeunesse durant les années 1950 et les années 1960, travaillant pour Hachette, notamment pour les collections Idéal-Bibliothèque, Bibliothèque rose et Bibliothèque verte, Delagrave et éditions G. P.
 Il y travaille avec les auteurs de ces maisons : Jeanne Saint-Marcoux, Marguerite Thiébold, Mabel Esther Allan, ainsi que pour des auteurs classiques comme Louisa May Alcott, Charlotte Brontë, Pierre MacOrlan, Prosper Mérimée ou Jules Verne.
-Pour cette dernière, il a été le principal artiste des séries Souveraine et Dauphine de la collection Rouge et or [4],[5].
+Pour cette dernière, il a été le principal artiste des séries Souveraine et Dauphine de la collection Rouge et or ,.
 Il illustre de nombreux ouvrages de la collection Spirale.
 Travaillant dans un atelier à Paris, il est décédé à Gassin où il résidait.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gilles_Vald%C3%A8s</t>
+          <t>Gilles_Valdès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Années 1950
-Saint-Marcoux (ill. Gilles Valdès), Fanchette, le jardin de l'espérance, Paris, Éditions G. P., coll. « Bibliothèque Rouge et or », 1955, 192 p. (BNF 32598110)
+          <t>Années 1950</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Saint-Marcoux (ill. Gilles Valdès), Fanchette, le jardin de l'espérance, Paris, Éditions G. P., coll. « Bibliothèque Rouge et or », 1955, 192 p. (BNF 32598110)
 Louisa May Alcott (trad. Denise Hamoir, ill. Gilles Valdès), Le Dr March marie ses filles [« Good wives »], Paris, Hachette, coll. « Idéal-Bibliothèque », 1955, 192 p. (BNF 31708351)
 Saint-Marcoux (ill. Gilles Valdès), Le Voleur de lumière (Mirentchou), vol. 81, Paris, G. P., coll. « Bibl. Rouge et or / Souveraine », 1955, 188 p. (BNF 32598116)
 Marguerite Thiébold (ill. Gilles Valdès), Amitia, fille du lac, vol. 85, Paris, Éditions G. P., coll. « Bibliothèque Rouge et or », 1955, 191 p. (BNF 31455551)
@@ -571,9 +590,43 @@
 Jean Muray (ill. Gilles Valdès), Une bergère et son chien, Paris, Hachette, coll. « Collection des grands romanciers », 1959, 95 p. (BNF 32475573)
 Michel Manoll (ill. Gilles Valdès), Tristan et Yseult, vol. 36, Paris, Éditions G.P., coll. « Super », 1959, 252 p. (BNF 33196566)
 Prosper Mérimée (ill. Gilles Valdès), Colomba, vol. 12, Paris, Éditions G.P., coll. « Spirale », 1959, 252 p. (BNF 33098096)
-René Garrus (ill. Gilles Valdès), Le Lis du Ponte Vecchio, vol. 148, Paris, Éditions G.P., coll. « Bibliothèque Rouge et or / Souveraine », 1959, 188 p. (BNF 33021118)
-Années 1960
-Jules Verne (ill. Gilles Valdès), Les Tribulations d'un Chinois en Chine, Paris, Hachette, coll. « Collection des grands romanciers », 1960 (BNF 31562643)
+René Garrus (ill. Gilles Valdès), Le Lis du Ponte Vecchio, vol. 148, Paris, Éditions G.P., coll. « Bibliothèque Rouge et or / Souveraine », 1959, 188 p. (BNF 33021118)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gilles_Valdès</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilles_Vald%C3%A8s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Années 1960</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jules Verne (ill. Gilles Valdès), Les Tribulations d'un Chinois en Chine, Paris, Hachette, coll. « Collection des grands romanciers », 1960 (BNF 31562643)
 Charlotte Brontë (trad. Geneviève Méker, ill. Gilles Valdès), Jane Eyre, vol. 25, Paris, Éditions G.P., coll. « Spirale », 1960, 252 p. (BNF 32934130)
 Mabel Esther Allan (trad. Alain Valiere, ill. Gilles Valdès), Lise en Italie [« Amanda goes to Italy »], vol. 20, Paris, G. P., coll. « Spirale », 1960, 252 p. (BNF 32901049)
 Mabel Esther Allan (trad. Alain Valiere, ill. Gilles Valdès), Luce en Bavière [« Sara goes to Germany »], vol. 44, Paris, G. P., coll. « Spirale », 1961, 252 p. (BNF 32901050)
